--- a/src/main/resources/template/excel/export/posPrizeRecordDetail.xlsx
+++ b/src/main/resources/template/excel/export/posPrizeRecordDetail.xlsx
@@ -40,7 +40,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="H4")</t>
+          <t>jx:area(lastCell="I4")</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="I3")</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>合计：</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -110,10 +110,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>活动机构</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>中奖时间</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -142,15 +138,29 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>${obj.branchName}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.winTimeStr}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动类型</t>
+    <rPh sb="0" eb="1">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lei'x</t>
+    </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>${obj.branchCode}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>${obj.branchName}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.winTimeStr}</t>
+    <t>${obj.formTypeStr}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -269,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -289,6 +299,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -666,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -677,25 +690,26 @@
     <col min="1" max="1" width="17.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
-    <col min="4" max="6" width="24.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="4" max="7" width="24.6640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -712,48 +726,52 @@
         <v>7</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
@@ -762,19 +780,20 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -861,7 +880,7 @@
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/posPrizeRecordDetail.xlsx
+++ b/src/main/resources/template/excel/export/posPrizeRecordDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="0" yWindow="8220" windowWidth="25600" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="I4")</t>
+          <t>jx:area(lastCell="H4")</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="I3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="H3")</t>
         </r>
       </text>
     </comment>
@@ -63,13 +63,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>合计：</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>$[SUMPRODUCT(E3:E3+0)]</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -102,10 +98,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>数量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>机构编码</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -131,10 +123,6 @@
   </si>
   <si>
     <t>${obj.statusStr}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>${obj.winNum}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -161,6 +149,16 @@
   </si>
   <si>
     <t>${obj.formTypeStr}</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动机构</t>
+    <rPh sb="0" eb="1">
+      <t>huo'd</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'g</t>
+    </rPh>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I100"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -690,15 +688,15 @@
     <col min="1" max="1" width="17.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="2" customWidth="1"/>
-    <col min="4" max="7" width="24.6640625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="18" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="4" max="6" width="24.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
@@ -707,93 +705,85 @@
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
       <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,7 +870,7 @@
     <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
